--- a/WorkBot/refactor/data/orders/Hill & Markes/CompletedOrders/Hill & Markes_Triphammer_2025-07-25.xlsx
+++ b/WorkBot/refactor/data/orders/Hill & Markes/CompletedOrders/Hill & Markes_Triphammer_2025-07-25.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,39 +478,39 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>KC12SITHACA</t>
+          <t>INPSDR0120ITHACABAKERY</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cup - Cold (12oz)</t>
+          <t>Cup - Hot (12oz)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>87.78</t>
+          <t>62.78</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>175.56</t>
+          <t>62.78</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>INPSDR0120ITHACABAKERY</t>
+          <t>INPSDR0160ITHACABAKERY</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cup - Hot (12oz)</t>
+          <t>Cup - Hot (16oz)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -520,24 +520,24 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>62.78</t>
+          <t>70.09</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>62.78</t>
+          <t>70.09</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>INPSDR0160ITHACABAKERY</t>
+          <t>INPSDR0200ITHACABAKERY</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cup - Hot (16oz)</t>
+          <t>Cup - Hot (20oz)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -547,56 +547,56 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>70.09</t>
+          <t>83.13</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>70.09</t>
+          <t>83.13</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>INPSDR0200ITHACABAKERY</t>
+          <t>DIXDUSSF5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cup - Hot (20oz)</t>
+          <t>Fork - Smart Stock</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>83.13</t>
+          <t>42.71</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>83.13</t>
+          <t>85.42</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DIXDUSSF5</t>
+          <t>DUSSK5</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Fork - Smart Stock</t>
+          <t>Knife - Smart Stock</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -606,19 +606,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>85.42</t>
+          <t>42.71</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DUSSK5</t>
+          <t>FABDLKC1624</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Knife - Smart Stock</t>
+          <t>Lid Cold Dome 16/24oz</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -628,24 +628,24 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>42.71</t>
+          <t>66.62</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>42.71</t>
+          <t>66.62</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>FABDLKC1624</t>
+          <t>SMTSM2PIKN</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Lid Cold Dome 16/24oz</t>
+          <t>Napkin - Dispenser</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -655,24 +655,24 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>66.62</t>
+          <t>30.94</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>66.62</t>
+          <t>30.94</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SMTSM2PIKN</t>
+          <t>JNA26W</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Napkin - Dispenser</t>
+          <t>Straws - Wrapped</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -682,24 +682,24 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>30.94</t>
+          <t>59.31</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>30.94</t>
+          <t>59.31</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>JNA26W</t>
+          <t>WES183</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Straws - Wrapped</t>
+          <t>Wrap - Film (18")</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -709,39 +709,282 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>59.31</t>
+          <t>29.75</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>59.31</t>
+          <t>29.75</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>WES183</t>
+          <t>ANPLC4F</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Wrap - Film (18")</t>
+          <t>Lid Anchor - 24/32oz (Flat)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>29.75</t>
+          <t>66.89</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>29.75</t>
+          <t>133.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ANPLC4LD</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Lid Anchor - 24/32oz (Dome)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>56.82</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>113.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ANPM424</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Container - Anchor (24oz)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>47.17</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4541602</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Container - Anchor (16oz)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>43.72</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>SLOP325</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Cup - Portion (3.25oz)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>53.50</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>53.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>TS8</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Tamper Evident - 8oz</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>38.29</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>38.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>TS12</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Tamper Evident - 12oz Square</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>38.39</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>76.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>TS16</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Tamper Evident - 16oz</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>41.87</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.74</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>SAB52032T300</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Lid Salad - 24/32oz Sabert (Round)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>80.81</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>80.81</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>SAB12032T300</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Cont Salad - 32oz Sabert (Round)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.05</t>
         </is>
       </c>
     </row>
